--- a/#Notes/FINAL.xlsx
+++ b/#Notes/FINAL.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="780" yWindow="936" windowWidth="23256" windowHeight="13176"/>
@@ -10,22 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1492,12 +1481,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1513,7 +1514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1537,6 +1538,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1547,9 +1550,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E271" sqref="E271"/>
+    <sheetView tabSelected="1" topLeftCell="A431" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B454" sqref="B454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3693,7 +3693,7 @@
       <c r="B176" s="7"/>
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:3" ht="21">
+    <row r="177" spans="1:4" ht="21">
       <c r="A177" s="5" t="s">
         <v>171</v>
       </c>
@@ -3703,8 +3703,11 @@
       <c r="C177" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" ht="21">
+      <c r="D177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="21">
       <c r="A178" s="5" t="s">
         <v>171</v>
       </c>
@@ -3714,8 +3717,11 @@
       <c r="C178" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" ht="21">
+      <c r="D178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="21">
       <c r="A179" s="5" t="s">
         <v>171</v>
       </c>
@@ -3725,8 +3731,11 @@
       <c r="C179" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" ht="21">
+      <c r="D179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="21">
       <c r="A180" s="5" t="s">
         <v>171</v>
       </c>
@@ -3736,8 +3745,11 @@
       <c r="C180" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" ht="21">
+      <c r="D180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="21">
       <c r="A181" s="5" t="s">
         <v>171</v>
       </c>
@@ -3747,8 +3759,11 @@
       <c r="C181" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="21">
+      <c r="D181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="21">
       <c r="A182" s="5" t="s">
         <v>171</v>
       </c>
@@ -3758,8 +3773,11 @@
       <c r="C182" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" ht="21">
+      <c r="D182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="21">
       <c r="A183" s="5" t="s">
         <v>171</v>
       </c>
@@ -3769,8 +3787,11 @@
       <c r="C183" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" ht="21">
+      <c r="D183">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="21">
       <c r="A184" s="5" t="s">
         <v>171</v>
       </c>
@@ -3780,8 +3801,11 @@
       <c r="C184" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" ht="21">
+      <c r="D184">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="21">
       <c r="A185" s="5" t="s">
         <v>171</v>
       </c>
@@ -3791,8 +3815,11 @@
       <c r="C185" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" ht="21">
+      <c r="D185">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="21">
       <c r="A186" s="5" t="s">
         <v>171</v>
       </c>
@@ -3802,8 +3829,11 @@
       <c r="C186" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" ht="21">
+      <c r="D186">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="21">
       <c r="A187" s="5" t="s">
         <v>171</v>
       </c>
@@ -3813,8 +3843,11 @@
       <c r="C187" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" ht="21">
+      <c r="D187">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="21">
       <c r="A188" s="5" t="s">
         <v>171</v>
       </c>
@@ -3824,8 +3857,11 @@
       <c r="C188" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" ht="21">
+      <c r="D188">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="21">
       <c r="A189" s="5" t="s">
         <v>171</v>
       </c>
@@ -3835,8 +3871,11 @@
       <c r="C189" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" ht="21">
+      <c r="D189">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="21">
       <c r="A190" s="5" t="s">
         <v>171</v>
       </c>
@@ -3846,8 +3885,11 @@
       <c r="C190" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" ht="21">
+      <c r="D190">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="21">
       <c r="A191" s="5" t="s">
         <v>171</v>
       </c>
@@ -3857,8 +3899,11 @@
       <c r="C191" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" ht="21">
+      <c r="D191">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="21">
       <c r="A192" s="5" t="s">
         <v>171</v>
       </c>
@@ -3868,8 +3913,11 @@
       <c r="C192" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" ht="21">
+      <c r="D192">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="21">
       <c r="A193" s="5" t="s">
         <v>171</v>
       </c>
@@ -3879,8 +3927,11 @@
       <c r="C193" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" ht="21">
+      <c r="D193">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="21">
       <c r="A194" s="5" t="s">
         <v>171</v>
       </c>
@@ -3890,8 +3941,11 @@
       <c r="C194" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" ht="21">
+      <c r="D194">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="21">
       <c r="A195" s="5" t="s">
         <v>171</v>
       </c>
@@ -3901,8 +3955,11 @@
       <c r="C195" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" ht="21">
+      <c r="D195">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="21">
       <c r="A196" s="5" t="s">
         <v>171</v>
       </c>
@@ -3912,8 +3969,11 @@
       <c r="C196" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" ht="21">
+      <c r="D196">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="21">
       <c r="A197" s="5" t="s">
         <v>171</v>
       </c>
@@ -3923,8 +3983,11 @@
       <c r="C197" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" ht="21">
+      <c r="D197">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="21">
       <c r="A198" s="5" t="s">
         <v>171</v>
       </c>
@@ -3934,8 +3997,11 @@
       <c r="C198" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" ht="21">
+      <c r="D198">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="21">
       <c r="A199" s="5" t="s">
         <v>171</v>
       </c>
@@ -3945,8 +4011,11 @@
       <c r="C199" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" ht="21">
+      <c r="D199">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="21">
       <c r="A200" s="5" t="s">
         <v>171</v>
       </c>
@@ -3956,8 +4025,11 @@
       <c r="C200" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" ht="21">
+      <c r="D200">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="21">
       <c r="A201" s="5" t="s">
         <v>171</v>
       </c>
@@ -3967,8 +4039,11 @@
       <c r="C201" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" ht="21">
+      <c r="D201">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="21">
       <c r="A202" s="5" t="s">
         <v>171</v>
       </c>
@@ -3978,8 +4053,11 @@
       <c r="C202" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" ht="21">
+      <c r="D202">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="21">
       <c r="A203" s="5" t="s">
         <v>171</v>
       </c>
@@ -3989,8 +4067,11 @@
       <c r="C203" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" ht="21">
+      <c r="D203">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="21">
       <c r="A204" s="5" t="s">
         <v>171</v>
       </c>
@@ -4000,8 +4081,11 @@
       <c r="C204" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" ht="21">
+      <c r="D204">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="21">
       <c r="A205" s="5" t="s">
         <v>171</v>
       </c>
@@ -4011,8 +4095,11 @@
       <c r="C205" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" ht="21">
+      <c r="D205">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="21">
       <c r="A206" s="5" t="s">
         <v>171</v>
       </c>
@@ -4022,8 +4109,11 @@
       <c r="C206" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" ht="21">
+      <c r="D206">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="21">
       <c r="A207" s="5" t="s">
         <v>171</v>
       </c>
@@ -4033,8 +4123,11 @@
       <c r="C207" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" ht="21">
+      <c r="D207">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="21">
       <c r="A208" s="5" t="s">
         <v>171</v>
       </c>
@@ -4044,8 +4137,11 @@
       <c r="C208" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" ht="21">
+      <c r="D208">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="21">
       <c r="A209" s="5" t="s">
         <v>171</v>
       </c>
@@ -4055,8 +4151,11 @@
       <c r="C209" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" ht="21">
+      <c r="D209">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="21">
       <c r="A210" s="5" t="s">
         <v>171</v>
       </c>
@@ -4066,8 +4165,11 @@
       <c r="C210" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" ht="21">
+      <c r="D210">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="21">
       <c r="A211" s="5" t="s">
         <v>171</v>
       </c>
@@ -4077,18 +4179,21 @@
       <c r="C211" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" ht="21">
+      <c r="D211">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="21">
       <c r="A212" s="8"/>
       <c r="B212" s="7"/>
       <c r="C212" s="4"/>
     </row>
-    <row r="213" spans="1:3" ht="21">
+    <row r="213" spans="1:4" ht="21">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
       <c r="C213" s="4"/>
     </row>
-    <row r="214" spans="1:3" ht="21">
+    <row r="214" spans="1:4" ht="21">
       <c r="A214" s="5" t="s">
         <v>207</v>
       </c>
@@ -4099,7 +4204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="21">
+    <row r="215" spans="1:4" ht="21">
       <c r="A215" s="5" t="s">
         <v>207</v>
       </c>
@@ -4110,7 +4215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="21">
+    <row r="216" spans="1:4" ht="21">
       <c r="A216" s="5" t="s">
         <v>207</v>
       </c>
@@ -4121,7 +4226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="21">
+    <row r="217" spans="1:4" ht="21">
       <c r="A217" s="5" t="s">
         <v>207</v>
       </c>
@@ -4132,7 +4237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="21">
+    <row r="218" spans="1:4" ht="21">
       <c r="A218" s="5" t="s">
         <v>207</v>
       </c>
@@ -4143,7 +4248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="21">
+    <row r="219" spans="1:4" ht="21">
       <c r="A219" s="5" t="s">
         <v>207</v>
       </c>
@@ -4154,7 +4259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="21">
+    <row r="220" spans="1:4" ht="21">
       <c r="A220" s="5" t="s">
         <v>207</v>
       </c>
@@ -4165,7 +4270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="21">
+    <row r="221" spans="1:4" ht="21">
       <c r="A221" s="5" t="s">
         <v>207</v>
       </c>
@@ -4176,7 +4281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="21">
+    <row r="222" spans="1:4" ht="21">
       <c r="A222" s="5" t="s">
         <v>207</v>
       </c>
@@ -4187,7 +4292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="21">
+    <row r="223" spans="1:4" ht="21">
       <c r="A223" s="5" t="s">
         <v>207</v>
       </c>
@@ -4198,7 +4303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="21">
+    <row r="224" spans="1:4" ht="21">
       <c r="A224" s="5" t="s">
         <v>207</v>
       </c>
@@ -5666,7 +5771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="21">
+    <row r="353" spans="1:5" ht="21">
       <c r="A353" s="8" t="s">
         <v>324</v>
       </c>
@@ -5677,15 +5782,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="21">
+    <row r="354" spans="1:5" ht="21">
       <c r="B354" s="7"/>
       <c r="C354" s="4"/>
     </row>
-    <row r="355" spans="1:3" ht="21">
+    <row r="355" spans="1:5" ht="21">
       <c r="B355" s="7"/>
       <c r="C355" s="4"/>
     </row>
-    <row r="356" spans="1:3" ht="21">
+    <row r="356" spans="1:5" ht="21">
       <c r="A356" s="8" t="s">
         <v>343</v>
       </c>
@@ -5695,8 +5800,11 @@
       <c r="C356" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" ht="21">
+      <c r="E356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="21">
       <c r="A357" s="8" t="s">
         <v>343</v>
       </c>
@@ -5706,8 +5814,11 @@
       <c r="C357" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" ht="21">
+      <c r="E357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="21">
       <c r="A358" s="8" t="s">
         <v>343</v>
       </c>
@@ -5717,8 +5828,11 @@
       <c r="C358" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" ht="21">
+      <c r="E358">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="21">
       <c r="A359" s="8" t="s">
         <v>343</v>
       </c>
@@ -5728,8 +5842,11 @@
       <c r="C359" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" ht="21">
+      <c r="E359">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="21">
       <c r="A360" s="8" t="s">
         <v>343</v>
       </c>
@@ -5739,8 +5856,11 @@
       <c r="C360" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" ht="21">
+      <c r="E360">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="21">
       <c r="A361" s="8" t="s">
         <v>343</v>
       </c>
@@ -5750,8 +5870,11 @@
       <c r="C361" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" ht="21">
+      <c r="E361">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="21">
       <c r="A362" s="8" t="s">
         <v>343</v>
       </c>
@@ -5761,8 +5884,11 @@
       <c r="C362" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" ht="21">
+      <c r="E362">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="21">
       <c r="A363" s="8" t="s">
         <v>343</v>
       </c>
@@ -5772,8 +5898,11 @@
       <c r="C363" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" ht="21">
+      <c r="E363">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="21">
       <c r="A364" s="8" t="s">
         <v>343</v>
       </c>
@@ -5783,8 +5912,11 @@
       <c r="C364" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" ht="21">
+      <c r="E364">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="21">
       <c r="A365" s="8" t="s">
         <v>343</v>
       </c>
@@ -5794,8 +5926,11 @@
       <c r="C365" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" ht="21">
+      <c r="E365">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="21">
       <c r="A366" s="8" t="s">
         <v>343</v>
       </c>
@@ -5805,8 +5940,11 @@
       <c r="C366" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" ht="21">
+      <c r="E366">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="21">
       <c r="A367" s="8" t="s">
         <v>343</v>
       </c>
@@ -5816,8 +5954,11 @@
       <c r="C367" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" ht="21">
+      <c r="E367">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="21">
       <c r="A368" s="8" t="s">
         <v>343</v>
       </c>
@@ -5827,8 +5968,11 @@
       <c r="C368" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" ht="21">
+      <c r="E368">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="21">
       <c r="A369" s="8" t="s">
         <v>343</v>
       </c>
@@ -5838,8 +5982,11 @@
       <c r="C369" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" ht="21">
+      <c r="E369">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="21">
       <c r="A370" s="8" t="s">
         <v>343</v>
       </c>
@@ -5849,8 +5996,11 @@
       <c r="C370" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" ht="21">
+      <c r="E370">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="21">
       <c r="A371" s="8" t="s">
         <v>343</v>
       </c>
@@ -5860,8 +6010,11 @@
       <c r="C371" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" ht="21">
+      <c r="E371">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" ht="21">
       <c r="A372" s="8" t="s">
         <v>343</v>
       </c>
@@ -5871,8 +6024,11 @@
       <c r="C372" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" ht="21">
+      <c r="E372">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" ht="21">
       <c r="A373" s="8" t="s">
         <v>343</v>
       </c>
@@ -5882,8 +6038,11 @@
       <c r="C373" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" ht="21">
+      <c r="E373">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" ht="21">
       <c r="A374" s="8" t="s">
         <v>343</v>
       </c>
@@ -5893,8 +6052,11 @@
       <c r="C374" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" ht="21">
+      <c r="E374">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" ht="21">
       <c r="A375" s="8" t="s">
         <v>343</v>
       </c>
@@ -5904,8 +6066,11 @@
       <c r="C375" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" ht="21">
+      <c r="E375">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" ht="21">
       <c r="A376" s="8" t="s">
         <v>343</v>
       </c>
@@ -5915,8 +6080,11 @@
       <c r="C376" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" ht="21">
+      <c r="E376">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="21">
       <c r="A377" s="8" t="s">
         <v>343</v>
       </c>
@@ -5926,8 +6094,11 @@
       <c r="C377" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" ht="21">
+      <c r="E377">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="21">
       <c r="A378" s="8" t="s">
         <v>343</v>
       </c>
@@ -5937,8 +6108,11 @@
       <c r="C378" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" ht="21">
+      <c r="E378">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="21">
       <c r="A379" s="8" t="s">
         <v>343</v>
       </c>
@@ -5948,8 +6122,11 @@
       <c r="C379" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" ht="21">
+      <c r="E379">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="21">
       <c r="A380" s="8" t="s">
         <v>343</v>
       </c>
@@ -5959,8 +6136,11 @@
       <c r="C380" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" ht="21">
+      <c r="E380">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" ht="21">
       <c r="A381" s="8" t="s">
         <v>343</v>
       </c>
@@ -5970,8 +6150,11 @@
       <c r="C381" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" ht="21">
+      <c r="E381">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="21">
       <c r="A382" s="8" t="s">
         <v>343</v>
       </c>
@@ -5981,8 +6164,11 @@
       <c r="C382" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" ht="21">
+      <c r="E382">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="21">
       <c r="A383" s="8" t="s">
         <v>343</v>
       </c>
@@ -5992,8 +6178,11 @@
       <c r="C383" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" ht="21">
+      <c r="E383">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="21">
       <c r="A384" s="8" t="s">
         <v>343</v>
       </c>
@@ -6003,8 +6192,11 @@
       <c r="C384" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" ht="21">
+      <c r="E384">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="21">
       <c r="A385" s="8" t="s">
         <v>343</v>
       </c>
@@ -6014,8 +6206,11 @@
       <c r="C385" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" ht="21">
+      <c r="E385">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" ht="21">
       <c r="A386" s="8" t="s">
         <v>343</v>
       </c>
@@ -6025,8 +6220,11 @@
       <c r="C386" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" ht="21">
+      <c r="E386">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" ht="21">
       <c r="A387" s="8" t="s">
         <v>343</v>
       </c>
@@ -6036,8 +6234,11 @@
       <c r="C387" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" ht="21">
+      <c r="E387">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" ht="21">
       <c r="A388" s="8" t="s">
         <v>343</v>
       </c>
@@ -6047,8 +6248,11 @@
       <c r="C388" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" ht="21">
+      <c r="E388">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" ht="21">
       <c r="A389" s="8" t="s">
         <v>343</v>
       </c>
@@ -6058,8 +6262,11 @@
       <c r="C389" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" ht="21">
+      <c r="E389">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" ht="21">
       <c r="A390" s="8" t="s">
         <v>343</v>
       </c>
@@ -6069,8 +6276,11 @@
       <c r="C390" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" ht="21">
+      <c r="E390">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" ht="21">
       <c r="A391" s="8" t="s">
         <v>343</v>
       </c>
@@ -6080,8 +6290,11 @@
       <c r="C391" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" ht="21">
+      <c r="E391">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" ht="21">
       <c r="A392" s="8" t="s">
         <v>343</v>
       </c>
@@ -6091,8 +6304,11 @@
       <c r="C392" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" ht="21">
+      <c r="E392">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" ht="21">
       <c r="A393" s="8" t="s">
         <v>343</v>
       </c>
@@ -6102,8 +6318,11 @@
       <c r="C393" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" ht="21">
+      <c r="E393">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="21">
       <c r="A394" s="8" t="s">
         <v>343</v>
       </c>
@@ -6113,8 +6332,11 @@
       <c r="C394" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" ht="21">
+      <c r="E394">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" ht="21">
       <c r="A395" s="8" t="s">
         <v>343</v>
       </c>
@@ -6124,8 +6346,11 @@
       <c r="C395" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" ht="21">
+      <c r="E395">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" ht="21">
       <c r="A396" s="8" t="s">
         <v>343</v>
       </c>
@@ -6135,8 +6360,11 @@
       <c r="C396" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" ht="21">
+      <c r="E396">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" ht="21">
       <c r="A397" s="8" t="s">
         <v>343</v>
       </c>
@@ -6146,8 +6374,11 @@
       <c r="C397" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" ht="21">
+      <c r="E397">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" ht="21">
       <c r="A398" s="8" t="s">
         <v>343</v>
       </c>
@@ -6157,8 +6388,11 @@
       <c r="C398" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" ht="21">
+      <c r="E398">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" ht="21">
       <c r="A399" s="8" t="s">
         <v>343</v>
       </c>
@@ -6168,8 +6402,11 @@
       <c r="C399" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" ht="21">
+      <c r="E399">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" ht="21">
       <c r="B400" s="7"/>
       <c r="C400" s="4"/>
     </row>
@@ -6431,6 +6668,7 @@
       <c r="C420" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D420" s="11"/>
       <c r="E420">
         <v>11</v>
       </c>
@@ -6445,6 +6683,7 @@
       <c r="C421" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D421" s="11"/>
       <c r="E421">
         <v>12</v>
       </c>
@@ -6568,7 +6807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="21">
+    <row r="429" spans="1:5" ht="22.2" customHeight="1">
       <c r="A429" s="5" t="s">
         <v>393</v>
       </c>
@@ -6578,6 +6817,7 @@
       <c r="C429" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D429" s="11"/>
       <c r="E429">
         <v>20</v>
       </c>
@@ -6592,6 +6832,9 @@
       <c r="C430" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D430" t="s">
+        <v>465</v>
+      </c>
       <c r="E430">
         <v>21</v>
       </c>
@@ -6606,6 +6849,9 @@
       <c r="C431" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D431" t="s">
+        <v>465</v>
+      </c>
       <c r="E431">
         <v>22</v>
       </c>
@@ -6620,6 +6866,9 @@
       <c r="C432" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D432" t="s">
+        <v>465</v>
+      </c>
       <c r="E432">
         <v>23</v>
       </c>
@@ -6634,6 +6883,7 @@
       <c r="C433" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D433" s="11"/>
       <c r="E433">
         <v>24</v>
       </c>
@@ -6648,6 +6898,9 @@
       <c r="C434" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D434" t="s">
+        <v>465</v>
+      </c>
       <c r="E434">
         <v>25</v>
       </c>
@@ -6662,6 +6915,9 @@
       <c r="C435" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D435" t="s">
+        <v>465</v>
+      </c>
       <c r="E435">
         <v>26</v>
       </c>
@@ -6676,6 +6932,9 @@
       <c r="C436" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D436" t="s">
+        <v>465</v>
+      </c>
       <c r="E436">
         <v>27</v>
       </c>
@@ -6690,6 +6949,9 @@
       <c r="C437" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D437" t="s">
+        <v>465</v>
+      </c>
       <c r="E437">
         <v>28</v>
       </c>
@@ -6704,6 +6966,7 @@
       <c r="C438" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D438" s="11"/>
       <c r="E438">
         <v>29</v>
       </c>
@@ -6718,6 +6981,7 @@
       <c r="C439" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D439" s="11"/>
       <c r="E439">
         <v>30</v>
       </c>
@@ -6732,6 +6996,9 @@
       <c r="C440" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D440" t="s">
+        <v>465</v>
+      </c>
       <c r="E440">
         <v>31</v>
       </c>
@@ -6746,6 +7013,9 @@
       <c r="C441" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D441" t="s">
+        <v>465</v>
+      </c>
       <c r="E441">
         <v>32</v>
       </c>
@@ -6760,6 +7030,9 @@
       <c r="C442" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D442" t="s">
+        <v>465</v>
+      </c>
       <c r="E442">
         <v>33</v>
       </c>
@@ -6774,6 +7047,9 @@
       <c r="C443" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D443" t="s">
+        <v>465</v>
+      </c>
       <c r="E443">
         <v>34</v>
       </c>
@@ -6788,6 +7064,9 @@
       <c r="C444" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D444" t="s">
+        <v>465</v>
+      </c>
       <c r="E444">
         <v>35</v>
       </c>
@@ -6802,6 +7081,9 @@
       <c r="C445" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D445" t="s">
+        <v>465</v>
+      </c>
       <c r="E445">
         <v>36</v>
       </c>
@@ -6816,6 +7098,9 @@
       <c r="C446" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D446" t="s">
+        <v>465</v>
+      </c>
       <c r="E446">
         <v>37</v>
       </c>
@@ -6858,6 +7143,9 @@
       <c r="C449" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D449" t="s">
+        <v>465</v>
+      </c>
       <c r="E449">
         <v>40</v>
       </c>
@@ -6872,6 +7160,9 @@
       <c r="C450" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D450" t="s">
+        <v>465</v>
+      </c>
       <c r="E450">
         <v>41</v>
       </c>
@@ -6886,6 +7177,7 @@
       <c r="C451" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D451" s="12"/>
       <c r="E451">
         <v>42</v>
       </c>
@@ -6900,6 +7192,7 @@
       <c r="C452" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D452" s="12"/>
       <c r="E452">
         <v>43</v>
       </c>
@@ -6914,6 +7207,9 @@
       <c r="C453" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D453" t="s">
+        <v>465</v>
+      </c>
       <c r="E453">
         <v>44</v>
       </c>
@@ -7149,7 +7445,6 @@
     <row r="471" spans="1:5" ht="21">
       <c r="A471" s="8"/>
       <c r="B471" s="7"/>
-      <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:5" ht="21">
       <c r="A472" s="5" t="s">
